--- a/spark/experiments/results-sql-g2.2.csv/g2.2-4t-n4-c3-m14-0.9-memory-fraction-no-cache.xlsx
+++ b/spark/experiments/results-sql-g2.2.csv/g2.2-4t-n4-c3-m14-0.9-memory-fraction-no-cache.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7c130d1b636f27d/Documents/heterogenous-scaling-in-k8s/spark/experiments/results-sql-g2.2.csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.2.csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{090C58FC-B773-4666-972F-A635148D0E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="24000" windowHeight="11460"/>
+    <workbookView xWindow="2112" yWindow="2112" windowWidth="24000" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="part-00000-01f2a7d3-5920-4d29-b" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -153,11 +152,41 @@
   <si>
     <t>file:///opt/bitnami/spark/spark_data/spark-bench-test/kmeans-data-g2-2.parquet</t>
   </si>
+  <si>
+    <t>percentile95-exp (ns)</t>
+  </si>
+  <si>
+    <t>deviation-exp (ns)</t>
+  </si>
+  <si>
+    <t>perc-warmup  (ns)</t>
+  </si>
+  <si>
+    <t>deviation-run (ns)</t>
+  </si>
+  <si>
+    <t>Total time (ms)</t>
+  </si>
+  <si>
+    <t>Totaltime (minutes)</t>
+  </si>
+  <si>
+    <t>Total time (seconds)</t>
+  </si>
+  <si>
+    <t>percentile95-exp (s)</t>
+  </si>
+  <si>
+    <t>percentile95-warmup (s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -635,8 +664,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -663,24 +694,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -696,9 +727,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -710,6 +741,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -900,7 +932,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CC0E-45AF-BB11-4E30170308F7}"/>
             </c:ext>
@@ -914,11 +946,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210831104"/>
-        <c:axId val="210740400"/>
+        <c:axId val="1489758112"/>
+        <c:axId val="1489764640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210831104"/>
+        <c:axId val="1489758112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,12 +1006,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210740400"/>
+        <c:crossAx val="1489764640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210740400"/>
+        <c:axId val="1489764640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210831104"/>
+        <c:crossAx val="1489758112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1050,14 +1082,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1668,7 +1700,7 @@
         <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226CCBE3-22C3-4ABD-87C9-79E84927127B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226CCBE3-22C3-4ABD-87C9-79E84927127B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,15 +2018,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2074,7 +2109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2148,7 +2183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2222,7 +2257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2296,7 +2331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2370,7 +2405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2444,7 +2479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2518,7 +2553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2592,7 +2627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2666,7 +2701,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2740,7 +2775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2814,7 +2849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2888,7 +2923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2962,7 +2997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3036,7 +3071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3110,7 +3145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3184,7 +3219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3258,7 +3293,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3332,7 +3367,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3406,7 +3441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3480,7 +3515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3554,7 +3589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3628,7 +3663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3702,7 +3737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3776,7 +3811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3850,7 +3885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3924,7 +3959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3998,7 +4033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4072,7 +4107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4146,7 +4181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -4220,7 +4255,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -4294,7 +4329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4368,7 +4403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -4442,7 +4477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4516,7 +4551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4590,7 +4625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -4664,7 +4699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -4738,7 +4773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4812,7 +4847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4886,7 +4921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -4960,7 +4995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5032,6 +5067,156 @@
       </c>
       <c r="Z41" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="1">
+        <f>PERCENTILE((C41,C40,C37,C36,C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12,C5,C4),0.95)</f>
+        <v>17244654312.049999</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="H42">
+        <f>AVERAGE(H41,H40,H37,H36,H33,H32,H29,H28,H25,H24,H21,H20,H17,H16,H13,H12,H9,H8,H5,H4)</f>
+        <v>5410474142.6499996</v>
+      </c>
+      <c r="K42">
+        <f>AVERAGE(K41,K40,K37,K36,K33,K32,K29,K28,K25,K24,K21,K20,K17,K16,K13,K12,K9,K8,K5,K4)</f>
+        <v>158411815.55000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="1">
+        <f>AVEDEV(C41,C40,C37,C36,C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12,C9,C8,C5,C4)</f>
+        <v>5385113426.6999989</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="H43">
+        <f>AVEDEV(H41,H40,H37,H36,H33,H32,H29,H28,H25,H24,H21,H20,H17,H16,H13,H12,H9,H8,H5,H4)</f>
+        <v>5390251308.5749989</v>
+      </c>
+      <c r="K43">
+        <f>AVEDEV(K41,K40,K37,K36,K33,K32,K29,K28,K25,K24,K21,K20,K17,K16,K13,K12,K9,K8,K5,K4)</f>
+        <v>45140064.625000015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1">
+        <f>PERCENTILE((C39,C38,C35,C34,C31,C30,C27,C26,C23,C22,C19,C18,C15,C14,C11,C10,C7,C6),0.95)</f>
+        <v>20452005500.5</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="H44">
+        <f>AVERAGE(H39,H38,H35,H34,H31,H30,H27,H26,H23,H22,H19,H18,H15,H14,H11,H10,H7,H6,H3,H2)</f>
+        <v>13274467107.200001</v>
+      </c>
+      <c r="K44">
+        <f>AVERAGE(K39,K38,K35,K34,K31,K30,K27,K26,K23,K22,K19,K18,K15,K14,K11,K10,K7,K6,K3,K2)</f>
+        <v>66450505.450000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1">
+        <f>AVEDEV(C39,C38,C35,C34,C31,C30,C27,C26,C23,C22,C19,C18,C15,C14,C11,C10,C7,C6,C3,C2)</f>
+        <v>8025175230.920001</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="H45">
+        <f>AVEDEV(H39,H38,H35,H34,H31,H30,H27,H26,H23,H22,H19,H18,H15,H14,H11,H10,H7,H6,H3,H2)</f>
+        <v>8035203826.4599991</v>
+      </c>
+      <c r="K45">
+        <f>AVEDEV(K39,K38,K35,K34,K31,K30,K27,K26,K23,K22,K19,K18,K15,K14,K11,K10,K7,K6,K3,K2)</f>
+        <v>36256229.105000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <f>B41-B2</f>
+        <v>785296</v>
+      </c>
+      <c r="C46" s="1">
+        <f>SUM(C2:C40)/1000000</f>
+        <v>377797.81297299999</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="H46">
+        <f>SUM(H2:H41)</f>
+        <v>373698824997</v>
+      </c>
+      <c r="K46">
+        <f>SUM(K2:K41)</f>
+        <v>4497246420</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <f>B46/1000/60</f>
+        <v>13.088266666666668</v>
+      </c>
+      <c r="C47">
+        <f>C46/1000/60</f>
+        <v>6.2966302162166672</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="H47">
+        <f>H46/1000/60</f>
+        <v>6228313.7499500001</v>
+      </c>
+      <c r="K47">
+        <f>K46/1000/60</f>
+        <v>74954.107000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <f>B47*60</f>
+        <v>785.29600000000005</v>
+      </c>
+      <c r="C48">
+        <f>C47*60</f>
+        <v>377.79781297300002</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49">
+        <f>C42/1000/1000/1000</f>
+        <v>17.244654312049999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <f>C44/1000/1000/1000</f>
+        <v>20.4520055005</v>
       </c>
     </row>
   </sheetData>
